--- a/payroll-template.xlsx
+++ b/payroll-template.xlsx
@@ -883,7 +883,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3444" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3448" uniqueCount="752">
   <si>
     <t>NIK</t>
   </si>
@@ -3127,6 +3127,18 @@
   </si>
   <si>
     <t xml:space="preserve"> SPV Arsitek</t>
+  </si>
+  <si>
+    <t>Tunjangan Kemahalan</t>
+  </si>
+  <si>
+    <t>Tunjangan Transportasi</t>
+  </si>
+  <si>
+    <t>Tunjangan Telepon</t>
+  </si>
+  <si>
+    <t>UMUT Lumpsum</t>
   </si>
 </sst>
 </file>
@@ -3664,12 +3676,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG418"/>
+  <dimension ref="A1:AK418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R2" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="Z2" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J2" sqref="J2"/>
-      <selection pane="bottomLeft" activeCell="AF358" sqref="AF358"/>
+      <selection pane="bottomLeft" activeCell="AH408" sqref="AH408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3704,10 +3716,14 @@
     <col min="31" max="31" width="23.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="30.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="3"/>
+    <col min="34" max="34" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA1" s="5">
         <v>0.75</v>
       </c>
@@ -3715,8 +3731,9 @@
         <v>0.25</v>
       </c>
       <c r="AG1" s="34"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH1" s="34"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3816,8 +3833,20 @@
       <c r="AG2" s="34" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH2" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="AI2" s="34" t="s">
+        <v>748</v>
+      </c>
+      <c r="AJ2" s="34" t="s">
+        <v>749</v>
+      </c>
+      <c r="AK2" s="34" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>50</v>
       </c>
@@ -3857,8 +3886,20 @@
       <c r="AG3" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH3" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>51</v>
       </c>
@@ -3898,8 +3939,20 @@
       <c r="AG4" s="12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH4" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>52</v>
       </c>
@@ -3939,8 +3992,20 @@
       <c r="AG5" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH5" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>53</v>
       </c>
@@ -3980,8 +4045,20 @@
       <c r="AG6" s="12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH6" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>54</v>
       </c>
@@ -4021,8 +4098,20 @@
       <c r="AG7" s="12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH7" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>55</v>
       </c>
@@ -4062,8 +4151,20 @@
       <c r="AG8" s="12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH8" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>66</v>
       </c>
@@ -4103,8 +4204,20 @@
       <c r="AG9" s="12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH9" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>67</v>
       </c>
@@ -4144,8 +4257,20 @@
       <c r="AG10" s="12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>68</v>
       </c>
@@ -4185,8 +4310,20 @@
       <c r="AG11" s="12" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH11" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>69</v>
       </c>
@@ -4226,8 +4363,20 @@
       <c r="AG12" s="12" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH12" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>70</v>
       </c>
@@ -4267,8 +4416,20 @@
       <c r="AG13" s="12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH13" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>71</v>
       </c>
@@ -4308,8 +4469,20 @@
       <c r="AG14" s="12" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH14" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>72</v>
       </c>
@@ -4349,8 +4522,20 @@
       <c r="AG15" s="12" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH15" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>73</v>
       </c>
@@ -4390,8 +4575,20 @@
       <c r="AG16" s="12" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH16" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>74</v>
       </c>
@@ -4431,8 +4628,20 @@
       <c r="AG17" s="12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH17" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>75</v>
       </c>
@@ -4472,8 +4681,20 @@
       <c r="AG18" s="12" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH18" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>76</v>
       </c>
@@ -4513,8 +4734,20 @@
       <c r="AG19" s="12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH19" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>77</v>
       </c>
@@ -4554,8 +4787,20 @@
       <c r="AG20" s="12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH20" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>105</v>
       </c>
@@ -4595,8 +4840,20 @@
       <c r="AG21" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH21" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="s">
         <v>106</v>
       </c>
@@ -4636,8 +4893,20 @@
       <c r="AG22" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH22" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>107</v>
       </c>
@@ -4677,8 +4946,20 @@
       <c r="AG23" s="12" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH23" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>108</v>
       </c>
@@ -4718,8 +4999,20 @@
       <c r="AG24" s="12" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH24" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>116</v>
       </c>
@@ -4759,8 +5052,20 @@
       <c r="AG25" s="12" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>117</v>
       </c>
@@ -4800,8 +5105,20 @@
       <c r="AG26" s="12" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH26" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>118</v>
       </c>
@@ -4841,8 +5158,20 @@
       <c r="AG27" s="12" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH27" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>119</v>
       </c>
@@ -4882,8 +5211,20 @@
       <c r="AG28" s="12" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH28" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>120</v>
       </c>
@@ -4923,8 +5264,20 @@
       <c r="AG29" s="12" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>121</v>
       </c>
@@ -4964,8 +5317,20 @@
       <c r="AG30" s="12" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>122</v>
       </c>
@@ -5005,8 +5370,20 @@
       <c r="AG31" s="12" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH31" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>123</v>
       </c>
@@ -5046,8 +5423,20 @@
       <c r="AG32" s="12" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH32" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>124</v>
       </c>
@@ -5087,8 +5476,20 @@
       <c r="AG33" s="12" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH33" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>125</v>
       </c>
@@ -5128,8 +5529,20 @@
       <c r="AG34" s="12" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>126</v>
       </c>
@@ -5169,8 +5582,20 @@
       <c r="AG35" s="12" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH35" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>127</v>
       </c>
@@ -5210,8 +5635,20 @@
       <c r="AG36" s="12" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH36" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>128</v>
       </c>
@@ -5251,8 +5688,20 @@
       <c r="AG37" s="12" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH37" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>129</v>
       </c>
@@ -5292,8 +5741,20 @@
       <c r="AG38" s="12" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH38" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>130</v>
       </c>
@@ -5333,8 +5794,20 @@
       <c r="AG39" s="12" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH39" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>131</v>
       </c>
@@ -5374,8 +5847,20 @@
       <c r="AG40" s="12" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH40" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>132</v>
       </c>
@@ -5415,8 +5900,20 @@
       <c r="AG41" s="12" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH41" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>133</v>
       </c>
@@ -5456,8 +5953,20 @@
       <c r="AG42" s="12" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH42" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>134</v>
       </c>
@@ -5497,8 +6006,20 @@
       <c r="AG43" s="12" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH43" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>135</v>
       </c>
@@ -5538,8 +6059,20 @@
       <c r="AG44" s="12" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="45" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH44" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>136</v>
       </c>
@@ -5579,8 +6112,20 @@
       <c r="AG45" s="12" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH45" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>137</v>
       </c>
@@ -5620,8 +6165,20 @@
       <c r="AG46" s="12" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH46" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>138</v>
       </c>
@@ -5661,8 +6218,20 @@
       <c r="AG47" s="12" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH47" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>139</v>
       </c>
@@ -5702,8 +6271,20 @@
       <c r="AG48" s="12" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="49" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH48" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
         <v>182</v>
       </c>
@@ -5743,8 +6324,20 @@
       <c r="AG49" s="12" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="50" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH49" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>183</v>
       </c>
@@ -5784,8 +6377,20 @@
       <c r="AG50" s="12" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="51" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH50" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>184</v>
       </c>
@@ -5825,8 +6430,20 @@
       <c r="AG51" s="12" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="52" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH51" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>185</v>
       </c>
@@ -5866,8 +6483,20 @@
       <c r="AG52" s="12" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="53" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH52" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>186</v>
       </c>
@@ -5907,8 +6536,20 @@
       <c r="AG53" s="12" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="54" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH53" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>187</v>
       </c>
@@ -5948,8 +6589,20 @@
       <c r="AG54" s="12" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="55" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH54" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>188</v>
       </c>
@@ -5989,8 +6642,20 @@
       <c r="AG55" s="12" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="56" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH55" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>189</v>
       </c>
@@ -6030,8 +6695,20 @@
       <c r="AG56" s="12" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="57" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH56" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>190</v>
       </c>
@@ -6071,8 +6748,20 @@
       <c r="AG57" s="12" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="58" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH57" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>191</v>
       </c>
@@ -6112,8 +6801,20 @@
       <c r="AG58" s="12" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="59" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH58" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>192</v>
       </c>
@@ -6153,8 +6854,20 @@
       <c r="AG59" s="12" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="60" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH59" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>193</v>
       </c>
@@ -6194,8 +6907,20 @@
       <c r="AG60" s="12" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="61" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH60" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>194</v>
       </c>
@@ -6235,8 +6960,20 @@
       <c r="AG61" s="12" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="62" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH61" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK61" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>195</v>
       </c>
@@ -6276,8 +7013,20 @@
       <c r="AG62" s="12" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="63" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH62" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK62" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>196</v>
       </c>
@@ -6317,8 +7066,20 @@
       <c r="AG63" s="12" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="64" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH63" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>197</v>
       </c>
@@ -6358,8 +7119,20 @@
       <c r="AG64" s="12" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="65" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH64" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>198</v>
       </c>
@@ -6399,8 +7172,20 @@
       <c r="AG65" s="12" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="66" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH65" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK65" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>199</v>
       </c>
@@ -6440,8 +7225,20 @@
       <c r="AG66" s="12" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="67" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH66" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK66" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="22" t="s">
         <v>200</v>
       </c>
@@ -6481,8 +7278,20 @@
       <c r="AG67" s="22" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="68" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH67" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK67" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>201</v>
       </c>
@@ -6522,8 +7331,20 @@
       <c r="AG68" s="12" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="69" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH68" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI68" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ68" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK68" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>202</v>
       </c>
@@ -6563,8 +7384,20 @@
       <c r="AG69" s="12" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="70" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH69" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI69" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ69" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK69" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>203</v>
       </c>
@@ -6604,8 +7437,20 @@
       <c r="AG70" s="12" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="71" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH70" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI70" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK70" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
         <v>204</v>
       </c>
@@ -6645,8 +7490,20 @@
       <c r="AG71" s="12" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="72" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH71" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI71" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ71" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK71" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>205</v>
       </c>
@@ -6686,8 +7543,20 @@
       <c r="AG72" s="12" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="73" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH72" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI72" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ72" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK72" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
         <v>206</v>
       </c>
@@ -6727,8 +7596,20 @@
       <c r="AG73" s="12" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="74" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH73" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI73" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ73" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK73" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>207</v>
       </c>
@@ -6768,8 +7649,20 @@
       <c r="AG74" s="12" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="75" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH74" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI74" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ74" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK74" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
         <v>208</v>
       </c>
@@ -6809,8 +7702,20 @@
       <c r="AG75" s="12" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="76" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH75" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI75" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ75" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK75" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>259</v>
       </c>
@@ -6850,8 +7755,20 @@
       <c r="AG76" s="12" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="77" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH76" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI76" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ76" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK76" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
         <v>260</v>
       </c>
@@ -6891,8 +7808,20 @@
       <c r="AG77" s="12" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="78" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH77" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI77" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ77" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK77" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>266</v>
       </c>
@@ -6932,8 +7861,20 @@
       <c r="AG78" s="12" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="79" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH78" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI78" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ78" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK78" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
         <v>267</v>
       </c>
@@ -6973,8 +7914,20 @@
       <c r="AG79" s="12" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="80" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH79" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI79" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ79" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK79" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>268</v>
       </c>
@@ -7014,8 +7967,20 @@
       <c r="AG80" s="12" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="81" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH80" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI80" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ80" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK80" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
         <v>269</v>
       </c>
@@ -7055,8 +8020,20 @@
       <c r="AG81" s="12" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="82" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH81" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI81" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ81" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK81" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>270</v>
       </c>
@@ -7096,8 +8073,20 @@
       <c r="AG82" s="12" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="83" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH82" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI82" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ82" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK82" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>271</v>
       </c>
@@ -7137,8 +8126,20 @@
       <c r="AG83" s="12" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="84" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH83" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI83" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ83" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK83" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B84" s="30" t="s">
         <v>272</v>
       </c>
@@ -7178,8 +8179,20 @@
       <c r="AG84" s="30" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="85" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH84" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI84" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK84" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
         <v>287</v>
       </c>
@@ -7219,8 +8232,20 @@
       <c r="AG85" s="12" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="86" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH85" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI85" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ85" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK85" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>288</v>
       </c>
@@ -7260,8 +8285,20 @@
       <c r="AG86" s="12" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="87" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH86" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI86" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ86" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK86" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
         <v>289</v>
       </c>
@@ -7301,8 +8338,20 @@
       <c r="AG87" s="12" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="88" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH87" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI87" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ87" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK87" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
         <v>290</v>
       </c>
@@ -7342,8 +8391,20 @@
       <c r="AG88" s="12" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="89" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH88" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI88" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ88" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK88" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
         <v>291</v>
       </c>
@@ -7383,8 +8444,20 @@
       <c r="AG89" s="12" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="90" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH89" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI89" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ89" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK89" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
         <v>292</v>
       </c>
@@ -7424,8 +8497,20 @@
       <c r="AG90" s="12" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="91" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH90" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI90" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ90" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK90" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
         <v>293</v>
       </c>
@@ -7465,8 +8550,20 @@
       <c r="AG91" s="12" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="92" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH91" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI91" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ91" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK91" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
         <v>294</v>
       </c>
@@ -7506,8 +8603,20 @@
       <c r="AG92" s="12" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="93" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH92" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI92" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ92" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK92" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
         <v>295</v>
       </c>
@@ -7547,8 +8656,20 @@
       <c r="AG93" s="12" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="94" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH93" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI93" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ93" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK93" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
         <v>296</v>
       </c>
@@ -7588,8 +8709,20 @@
       <c r="AG94" s="12" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="95" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH94" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI94" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ94" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK94" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
         <v>297</v>
       </c>
@@ -7629,8 +8762,20 @@
       <c r="AG95" s="12" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="96" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH95" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI95" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ95" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK95" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
         <v>298</v>
       </c>
@@ -7670,8 +8815,20 @@
       <c r="AG96" s="27" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="97" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH96" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI96" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ96" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK96" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B97" s="12" t="s">
         <v>299</v>
       </c>
@@ -7711,8 +8868,20 @@
       <c r="AG97" s="12" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="98" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH97" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI97" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ97" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK97" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
         <v>300</v>
       </c>
@@ -7752,8 +8921,20 @@
       <c r="AG98" s="12" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="99" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH98" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI98" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ98" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK98" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
         <v>301</v>
       </c>
@@ -7793,8 +8974,20 @@
       <c r="AG99" s="12" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="100" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH99" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI99" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ99" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK99" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
         <v>302</v>
       </c>
@@ -7834,8 +9027,20 @@
       <c r="AG100" s="12" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="101" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH100" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI100" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ100" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK100" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
         <v>303</v>
       </c>
@@ -7875,8 +9080,20 @@
       <c r="AG101" s="12" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="102" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH101" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI101" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ101" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK101" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
         <v>304</v>
       </c>
@@ -7916,8 +9133,20 @@
       <c r="AG102" s="12" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="103" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH102" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI102" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ102" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK102" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
         <v>305</v>
       </c>
@@ -7957,8 +9186,20 @@
       <c r="AG103" s="12" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="104" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH103" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI103" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ103" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK103" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
         <v>306</v>
       </c>
@@ -7998,8 +9239,20 @@
       <c r="AG104" s="12" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="105" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH104" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI104" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ104" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK104" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
         <v>307</v>
       </c>
@@ -8039,8 +9292,20 @@
       <c r="AG105" s="12" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="106" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH105" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI105" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ105" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK105" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
         <v>308</v>
       </c>
@@ -8080,8 +9345,20 @@
       <c r="AG106" s="12" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="107" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH106" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI106" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ106" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK106" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
         <v>309</v>
       </c>
@@ -8121,8 +9398,20 @@
       <c r="AG107" s="12" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="108" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH107" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI107" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ107" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK107" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
         <v>310</v>
       </c>
@@ -8162,8 +9451,20 @@
       <c r="AG108" s="12" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="109" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH108" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI108" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ108" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK108" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B109" s="12" t="s">
         <v>311</v>
       </c>
@@ -8203,8 +9504,20 @@
       <c r="AG109" s="12" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="110" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH109" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI109" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ109" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK109" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B110" s="12" t="s">
         <v>312</v>
       </c>
@@ -8244,8 +9557,20 @@
       <c r="AG110" s="12" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="111" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH110" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI110" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ110" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK110" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
         <v>313</v>
       </c>
@@ -8285,8 +9610,20 @@
       <c r="AG111" s="12" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="112" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH111" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI111" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ111" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK111" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B112" s="12" t="s">
         <v>314</v>
       </c>
@@ -8326,8 +9663,20 @@
       <c r="AG112" s="12" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="113" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH112" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI112" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ112" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK112" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B113" s="12" t="s">
         <v>315</v>
       </c>
@@ -8367,8 +9716,20 @@
       <c r="AG113" s="12" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="114" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH113" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI113" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ113" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK113" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
         <v>316</v>
       </c>
@@ -8408,8 +9769,20 @@
       <c r="AG114" s="12" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="115" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH114" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI114" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ114" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK114" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B115" s="12" t="s">
         <v>317</v>
       </c>
@@ -8449,8 +9822,20 @@
       <c r="AG115" s="12" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="116" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH115" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI115" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ115" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK115" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
         <v>318</v>
       </c>
@@ -8490,8 +9875,20 @@
       <c r="AG116" s="12" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="117" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH116" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI116" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ116" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK116" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B117" s="12" t="s">
         <v>319</v>
       </c>
@@ -8531,8 +9928,20 @@
       <c r="AG117" s="12" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="118" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH117" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI117" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ117" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK117" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
         <v>320</v>
       </c>
@@ -8572,8 +9981,20 @@
       <c r="AG118" s="12" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="119" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH118" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI118" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ118" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK118" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B119" s="12" t="s">
         <v>321</v>
       </c>
@@ -8613,8 +10034,20 @@
       <c r="AG119" s="27" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="120" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH119" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI119" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ119" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK119" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B120" s="12" t="s">
         <v>322</v>
       </c>
@@ -8654,8 +10087,20 @@
       <c r="AG120" s="12" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="121" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH120" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI120" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ120" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK120" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B121" s="12" t="s">
         <v>323</v>
       </c>
@@ -8695,8 +10140,20 @@
       <c r="AG121" s="12" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="122" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH121" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI121" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ121" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK121" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B122" s="12" t="s">
         <v>324</v>
       </c>
@@ -8736,8 +10193,20 @@
       <c r="AG122" s="12" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="123" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH122" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI122" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ122" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK122" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B123" s="12" t="s">
         <v>325</v>
       </c>
@@ -8777,8 +10246,20 @@
       <c r="AG123" s="12" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="124" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH123" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI123" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ123" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK123" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B124" s="12" t="s">
         <v>326</v>
       </c>
@@ -8818,8 +10299,20 @@
       <c r="AG124" s="12" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="125" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH124" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI124" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ124" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK124" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B125" s="12" t="s">
         <v>327</v>
       </c>
@@ -8859,8 +10352,20 @@
       <c r="AG125" s="12" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="126" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH125" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI125" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ125" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK125" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B126" s="12" t="s">
         <v>328</v>
       </c>
@@ -8900,8 +10405,20 @@
       <c r="AG126" s="12" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="127" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH126" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI126" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ126" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK126" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B127" s="12" t="s">
         <v>329</v>
       </c>
@@ -8941,8 +10458,20 @@
       <c r="AG127" s="12" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="128" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH127" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI127" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ127" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK127" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B128" s="12" t="s">
         <v>330</v>
       </c>
@@ -8982,8 +10511,20 @@
       <c r="AG128" s="12" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="129" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH128" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI128" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ128" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK128" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B129" s="12" t="s">
         <v>391</v>
       </c>
@@ -9026,8 +10567,20 @@
       <c r="AG129" s="39" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="130" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH129" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI129" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ129" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK129" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B130" s="39" t="s">
         <v>395</v>
       </c>
@@ -9070,8 +10623,20 @@
       <c r="AG130" s="39" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="131" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH130" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI130" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ130" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK130" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131" s="39" t="s">
         <v>396</v>
       </c>
@@ -9114,8 +10679,20 @@
       <c r="AG131" s="60" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="132" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH131" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI131" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ131" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK131" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B132" s="39" t="s">
         <v>397</v>
       </c>
@@ -9158,8 +10735,20 @@
       <c r="AG132" s="60" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="133" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH132" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI132" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ132" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK132" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B133" s="39" t="s">
         <v>398</v>
       </c>
@@ -9202,8 +10791,20 @@
       <c r="AG133" s="60" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="134" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH133" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI133" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ133" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK133" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B134" s="39" t="s">
         <v>399</v>
       </c>
@@ -9246,8 +10847,20 @@
       <c r="AG134" s="60" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="135" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH134" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI134" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ134" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK134" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B135" s="39" t="s">
         <v>400</v>
       </c>
@@ -9290,8 +10903,20 @@
       <c r="AG135" s="40" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="136" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH135" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI135" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ135" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK135" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B136" s="39" t="s">
         <v>401</v>
       </c>
@@ -9332,8 +10957,20 @@
       <c r="AG136" s="59" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="137" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH136" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI136" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ136" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK136" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B137" s="39" t="s">
         <v>402</v>
       </c>
@@ -9376,8 +11013,20 @@
       <c r="AG137" s="40" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="138" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH137" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI137" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ137" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK137" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B138" s="39" t="s">
         <v>314</v>
       </c>
@@ -9420,8 +11069,20 @@
       <c r="AG138" s="40" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="139" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH138" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI138" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ138" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK138" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B139" s="39" t="s">
         <v>403</v>
       </c>
@@ -9464,8 +11125,20 @@
       <c r="AG139" s="40" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="140" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH139" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI139" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ139" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK139" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B140" s="39" t="s">
         <v>404</v>
       </c>
@@ -9508,8 +11181,20 @@
       <c r="AG140" s="40" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="141" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH140" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI140" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ140" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK140" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B141" s="39" t="s">
         <v>405</v>
       </c>
@@ -9552,8 +11237,20 @@
       <c r="AG141" s="40" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="142" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH141" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI141" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ141" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK141" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B142" s="39" t="s">
         <v>406</v>
       </c>
@@ -9596,8 +11293,20 @@
       <c r="AG142" s="40" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="143" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH142" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI142" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ142" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK142" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B143" s="39" t="s">
         <v>407</v>
       </c>
@@ -9640,8 +11349,20 @@
       <c r="AG143" s="40" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="144" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH143" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI143" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ143" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK143" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B144" s="39" t="s">
         <v>408</v>
       </c>
@@ -9684,8 +11405,20 @@
       <c r="AG144" s="40" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="145" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH144" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI144" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ144" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK144" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B145" s="39" t="s">
         <v>409</v>
       </c>
@@ -9728,8 +11461,20 @@
       <c r="AG145" s="40" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="146" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH145" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI145" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ145" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK145" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B146" s="39" t="s">
         <v>410</v>
       </c>
@@ -9772,8 +11517,20 @@
       <c r="AG146" s="40" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="147" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH146" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI146" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ146" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK146" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B147" s="40" t="s">
         <v>411</v>
       </c>
@@ -9816,8 +11573,20 @@
       <c r="AG147" s="39" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="148" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH147" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI147" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ147" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK147" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B148" s="40" t="s">
         <v>412</v>
       </c>
@@ -9860,8 +11629,20 @@
       <c r="AG148" s="39" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="149" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH148" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI148" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ148" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK148" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B149" s="39" t="s">
         <v>413</v>
       </c>
@@ -9904,8 +11685,20 @@
       <c r="AG149" s="39" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="150" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH149" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI149" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ149" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK149" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B150" s="39" t="s">
         <v>414</v>
       </c>
@@ -9948,8 +11741,20 @@
       <c r="AG150" s="39" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="151" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH150" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI150" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ150" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK150" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B151" s="39" t="s">
         <v>415</v>
       </c>
@@ -9992,8 +11797,20 @@
       <c r="AG151" s="39" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="152" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH151" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI151" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ151" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK151" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B152" s="39" t="s">
         <v>416</v>
       </c>
@@ -10036,8 +11853,20 @@
       <c r="AG152" s="39" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="153" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH152" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI152" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ152" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK152" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B153" s="39" t="s">
         <v>417</v>
       </c>
@@ -10080,8 +11909,20 @@
       <c r="AG153" s="39" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="154" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH153" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI153" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ153" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK153" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B154" s="39" t="s">
         <v>418</v>
       </c>
@@ -10124,8 +11965,20 @@
       <c r="AG154" s="39" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="155" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH154" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI154" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ154" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK154" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B155" s="39" t="s">
         <v>419</v>
       </c>
@@ -10168,8 +12021,20 @@
       <c r="AG155" s="39" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="156" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH155" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI155" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ155" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK155" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B156" s="39" t="s">
         <v>420</v>
       </c>
@@ -10212,8 +12077,20 @@
       <c r="AG156" s="39" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="157" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH156" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI156" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ156" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK156" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B157" s="39" t="s">
         <v>421</v>
       </c>
@@ -10256,8 +12133,20 @@
       <c r="AG157" s="39" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="158" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH157" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI157" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ157" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK157" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B158" s="39" t="s">
         <v>422</v>
       </c>
@@ -10300,8 +12189,20 @@
       <c r="AG158" s="39" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="159" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH158" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI158" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ158" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK158" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B159" s="39" t="s">
         <v>423</v>
       </c>
@@ -10344,8 +12245,20 @@
       <c r="AG159" s="39" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="160" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH159" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI159" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ159" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK159" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B160" s="39" t="s">
         <v>424</v>
       </c>
@@ -10388,8 +12301,20 @@
       <c r="AG160" s="39" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="161" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH160" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI160" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ160" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK160" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B161" s="39" t="s">
         <v>425</v>
       </c>
@@ -10432,8 +12357,20 @@
       <c r="AG161" s="39" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="162" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH161" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI161" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ161" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK161" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B162" s="39" t="s">
         <v>426</v>
       </c>
@@ -10476,8 +12413,20 @@
       <c r="AG162" s="39" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="163" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH162" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI162" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ162" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK162" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B163" s="39" t="s">
         <v>427</v>
       </c>
@@ -10520,8 +12469,20 @@
       <c r="AG163" s="39" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="164" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH163" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI163" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ163" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK163" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B164" s="39" t="s">
         <v>428</v>
       </c>
@@ -10564,8 +12525,20 @@
       <c r="AG164" s="39" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="165" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH164" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI164" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ164" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK164" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B165" s="39" t="s">
         <v>429</v>
       </c>
@@ -10608,8 +12581,20 @@
       <c r="AG165" s="39" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="166" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH165" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI165" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ165" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK165" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B166" s="39" t="s">
         <v>430</v>
       </c>
@@ -10652,8 +12637,20 @@
       <c r="AG166" s="39" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="167" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH166" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI166" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ166" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK166" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B167" s="39" t="s">
         <v>431</v>
       </c>
@@ -10696,8 +12693,20 @@
       <c r="AG167" s="39" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="168" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH167" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI167" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ167" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK167" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B168" s="39" t="s">
         <v>432</v>
       </c>
@@ -10740,8 +12749,20 @@
       <c r="AG168" s="39" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="169" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH168" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI168" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ168" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK168" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B169" s="39" t="s">
         <v>433</v>
       </c>
@@ -10784,8 +12805,20 @@
       <c r="AG169" s="39" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="170" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH169" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI169" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ169" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK169" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B170" s="39" t="s">
         <v>434</v>
       </c>
@@ -10828,8 +12861,20 @@
       <c r="AG170" s="39" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="171" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH170" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI170" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ170" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK170" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B171" s="39" t="s">
         <v>435</v>
       </c>
@@ -10872,8 +12917,20 @@
       <c r="AG171" s="39" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="172" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH171" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI171" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ171" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK171" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B172" s="39" t="s">
         <v>436</v>
       </c>
@@ -10916,8 +12973,20 @@
       <c r="AG172" s="39" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="173" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH172" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI172" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ172" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK172" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B173" s="39" t="s">
         <v>437</v>
       </c>
@@ -10960,8 +13029,20 @@
       <c r="AG173" s="39" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="174" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH173" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI173" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ173" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK173" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B174" s="39" t="s">
         <v>438</v>
       </c>
@@ -11004,8 +13085,20 @@
       <c r="AG174" s="39" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="175" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH174" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI174" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ174" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK174" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B175" s="39" t="s">
         <v>439</v>
       </c>
@@ -11048,8 +13141,20 @@
       <c r="AG175" s="39" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="176" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH175" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI175" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ175" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK175" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B176" s="39" t="s">
         <v>440</v>
       </c>
@@ -11092,8 +13197,20 @@
       <c r="AG176" s="39" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="177" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH176" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI176" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ176" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK176" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B177" s="39" t="s">
         <v>441</v>
       </c>
@@ -11136,8 +13253,20 @@
       <c r="AG177" s="39" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="178" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH177" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI177" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ177" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK177" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B178" s="39" t="s">
         <v>442</v>
       </c>
@@ -11180,8 +13309,20 @@
       <c r="AG178" s="39" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="179" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH178" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI178" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ178" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK178" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B179" s="39" t="s">
         <v>443</v>
       </c>
@@ -11224,8 +13365,20 @@
       <c r="AG179" s="39" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="180" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH179" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI179" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ179" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK179" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B180" s="39" t="s">
         <v>444</v>
       </c>
@@ -11268,8 +13421,20 @@
       <c r="AG180" s="39" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="181" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH180" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI180" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ180" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK180" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B181" s="39" t="s">
         <v>445</v>
       </c>
@@ -11312,8 +13477,20 @@
       <c r="AG181" s="39" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="182" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH181" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI181" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ181" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK181" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B182" s="39" t="s">
         <v>446</v>
       </c>
@@ -11356,8 +13533,20 @@
       <c r="AG182" s="39" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="183" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH182" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI182" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ182" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK182" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B183" s="39" t="s">
         <v>447</v>
       </c>
@@ -11400,8 +13589,20 @@
       <c r="AG183" s="39" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="184" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH183" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI183" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ183" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK183" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B184" s="39" t="s">
         <v>448</v>
       </c>
@@ -11444,8 +13645,20 @@
       <c r="AG184" s="39" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="185" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH184" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI184" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ184" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK184" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B185" s="39" t="s">
         <v>449</v>
       </c>
@@ -11488,8 +13701,20 @@
       <c r="AG185" s="39" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="186" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH185" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI185" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ185" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK185" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B186" s="39" t="s">
         <v>450</v>
       </c>
@@ -11532,8 +13757,20 @@
       <c r="AG186" s="39" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="187" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH186" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI186" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ186" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK186" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B187" s="39" t="s">
         <v>451</v>
       </c>
@@ -11576,8 +13813,20 @@
       <c r="AG187" s="39" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="188" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH187" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI187" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ187" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK187" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B188" s="39" t="s">
         <v>452</v>
       </c>
@@ -11620,8 +13869,20 @@
       <c r="AG188" s="39" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="189" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH188" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI188" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ188" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK188" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B189" s="39" t="s">
         <v>453</v>
       </c>
@@ -11664,8 +13925,20 @@
       <c r="AG189" s="39" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="190" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH189" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI189" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ189" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK189" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B190" s="39" t="s">
         <v>454</v>
       </c>
@@ -11708,8 +13981,20 @@
       <c r="AG190" s="39" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="191" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH190" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI190" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ190" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK190" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B191" s="39" t="s">
         <v>455</v>
       </c>
@@ -11752,8 +14037,20 @@
       <c r="AG191" s="39" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="192" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH191" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI191" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ191" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK191" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B192" s="39" t="s">
         <v>456</v>
       </c>
@@ -11796,8 +14093,20 @@
       <c r="AG192" s="40" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="193" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH192" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI192" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ192" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK192" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B193" s="40" t="s">
         <v>457</v>
       </c>
@@ -11840,8 +14149,20 @@
       <c r="AG193" s="39" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="194" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH193" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI193" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ193" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK193" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B194" s="39" t="s">
         <v>458</v>
       </c>
@@ -11884,8 +14205,20 @@
       <c r="AG194" s="39" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="195" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH194" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI194" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ194" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK194" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B195" s="39" t="s">
         <v>459</v>
       </c>
@@ -11928,8 +14261,20 @@
       <c r="AG195" s="39" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="196" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH195" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI195" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ195" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK195" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B196" s="39" t="s">
         <v>460</v>
       </c>
@@ -11972,8 +14317,20 @@
       <c r="AG196" s="39" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="197" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH196" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI196" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ196" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK196" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B197" s="39" t="s">
         <v>461</v>
       </c>
@@ -12016,8 +14373,20 @@
       <c r="AG197" s="39" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="198" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH197" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI197" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ197" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK197" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B198" s="39" t="s">
         <v>462</v>
       </c>
@@ -12060,8 +14429,20 @@
       <c r="AG198" s="39" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="199" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH198" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI198" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ198" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK198" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B199" s="39" t="s">
         <v>463</v>
       </c>
@@ -12104,8 +14485,20 @@
       <c r="AG199" s="39" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="200" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH199" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI199" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ199" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK199" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B200" s="39" t="s">
         <v>464</v>
       </c>
@@ -12148,8 +14541,20 @@
       <c r="AG200" s="39" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="201" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH200" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI200" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ200" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK200" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B201" s="39" t="s">
         <v>465</v>
       </c>
@@ -12192,8 +14597,20 @@
       <c r="AG201" s="39" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="202" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH201" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI201" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ201" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK201" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B202" s="39" t="s">
         <v>466</v>
       </c>
@@ -12236,8 +14653,20 @@
       <c r="AG202" s="39" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="203" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH202" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI202" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ202" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK202" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B203" s="39" t="s">
         <v>467</v>
       </c>
@@ -12280,8 +14709,20 @@
       <c r="AG203" s="39" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="204" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH203" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI203" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ203" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK203" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B204" s="39" t="s">
         <v>468</v>
       </c>
@@ -12324,8 +14765,20 @@
       <c r="AG204" s="39" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="205" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH204" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI204" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ204" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK204" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B205" s="39" t="s">
         <v>469</v>
       </c>
@@ -12368,8 +14821,20 @@
       <c r="AG205" s="61" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="206" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH205" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI205" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ205" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK205" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B206" s="39" t="s">
         <v>470</v>
       </c>
@@ -12412,8 +14877,20 @@
       <c r="AG206" s="39" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="207" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH206" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI206" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ206" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK206" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B207" s="39" t="s">
         <v>471</v>
       </c>
@@ -12456,8 +14933,20 @@
       <c r="AG207" s="39" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="208" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH207" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI207" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ207" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK207" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B208" s="39" t="s">
         <v>472</v>
       </c>
@@ -12500,8 +14989,20 @@
       <c r="AG208" s="62" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="209" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH208" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI208" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ208" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK208" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B209" s="39" t="s">
         <v>473</v>
       </c>
@@ -12544,8 +15045,20 @@
       <c r="AG209" s="39" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="210" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH209" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI209" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ209" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK209" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B210" s="41" t="s">
         <v>474</v>
       </c>
@@ -12588,8 +15101,20 @@
       <c r="AG210" s="41" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="211" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH210" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI210" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ210" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK210" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B211" s="39" t="s">
         <v>475</v>
       </c>
@@ -12632,8 +15157,20 @@
       <c r="AG211" s="39" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="212" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH211" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI211" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ211" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK211" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B212" s="39" t="s">
         <v>476</v>
       </c>
@@ -12676,8 +15213,20 @@
       <c r="AG212" s="39" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="213" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH212" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI212" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ212" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK212" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B213" s="39" t="s">
         <v>477</v>
       </c>
@@ -12720,8 +15269,20 @@
       <c r="AG213" s="39" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="214" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH213" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI213" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ213" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK213" s="38">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="214" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B214" s="39" t="s">
         <v>478</v>
       </c>
@@ -12764,8 +15325,20 @@
       <c r="AG214" s="39" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="215" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH214" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI214" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ214" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK214" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B215" s="39" t="s">
         <v>479</v>
       </c>
@@ -12808,8 +15381,20 @@
       <c r="AG215" s="39" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="216" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH215" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI215" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ215" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK215" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B216" s="39" t="s">
         <v>480</v>
       </c>
@@ -12852,8 +15437,20 @@
       <c r="AG216" s="39" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="217" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH216" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI216" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ216" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK216" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B217" s="39" t="s">
         <v>481</v>
       </c>
@@ -12896,8 +15493,20 @@
       <c r="AG217" s="39" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="218" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH217" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI217" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ217" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK217" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B218" s="39" t="s">
         <v>482</v>
       </c>
@@ -12940,8 +15549,20 @@
       <c r="AG218" s="39" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="219" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH218" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI218" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ218" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK218" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B219" s="39" t="s">
         <v>483</v>
       </c>
@@ -12984,8 +15605,20 @@
       <c r="AG219" s="39" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="220" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH219" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI219" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ219" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK219" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B220" s="39" t="s">
         <v>484</v>
       </c>
@@ -13028,8 +15661,20 @@
       <c r="AG220" s="39" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="221" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH220" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI220" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ220" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK220" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B221" s="39" t="s">
         <v>485</v>
       </c>
@@ -13072,8 +15717,20 @@
       <c r="AG221" s="39" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="222" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH221" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI221" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ221" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK221" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B222" s="39" t="s">
         <v>486</v>
       </c>
@@ -13116,8 +15773,20 @@
       <c r="AG222" s="39" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="223" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH222" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI222" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ222" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK222" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B223" s="39" t="s">
         <v>487</v>
       </c>
@@ -13160,8 +15829,20 @@
       <c r="AG223" s="39" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="224" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH223" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI223" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ223" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK223" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B224" s="39" t="s">
         <v>488</v>
       </c>
@@ -13204,8 +15885,20 @@
       <c r="AG224" s="39" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="225" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH224" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI224" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ224" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK224" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B225" s="39" t="s">
         <v>489</v>
       </c>
@@ -13248,8 +15941,20 @@
       <c r="AG225" s="39" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="226" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH225" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI225" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ225" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK225" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B226" s="39" t="s">
         <v>490</v>
       </c>
@@ -13292,8 +15997,20 @@
       <c r="AG226" s="39" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="227" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH226" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI226" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ226" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK226" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B227" s="39" t="s">
         <v>491</v>
       </c>
@@ -13336,8 +16053,20 @@
       <c r="AG227" s="39" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="228" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH227" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI227" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ227" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK227" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B228" s="39" t="s">
         <v>492</v>
       </c>
@@ -13380,8 +16109,20 @@
       <c r="AG228" s="39" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="229" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH228" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI228" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ228" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK228" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B229" s="39" t="s">
         <v>493</v>
       </c>
@@ -13424,8 +16165,20 @@
       <c r="AG229" s="39" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="230" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH229" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI229" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ229" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK229" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B230" s="39" t="s">
         <v>494</v>
       </c>
@@ -13468,8 +16221,20 @@
       <c r="AG230" s="39" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="231" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH230" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI230" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ230" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK230" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B231" s="39" t="s">
         <v>495</v>
       </c>
@@ -13512,8 +16277,20 @@
       <c r="AG231" s="39" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="232" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH231" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI231" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ231" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK231" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B232" s="39" t="s">
         <v>496</v>
       </c>
@@ -13556,8 +16333,20 @@
       <c r="AG232" s="39" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="233" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH232" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI232" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ232" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK232" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B233" s="39" t="s">
         <v>497</v>
       </c>
@@ -13600,8 +16389,20 @@
       <c r="AG233" s="39" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="234" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH233" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI233" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ233" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK233" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B234" s="39" t="s">
         <v>498</v>
       </c>
@@ -13644,8 +16445,20 @@
       <c r="AG234" s="39" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="235" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH234" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI234" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ234" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK234" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B235" s="39" t="s">
         <v>499</v>
       </c>
@@ -13688,8 +16501,20 @@
       <c r="AG235" s="39" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="236" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH235" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI235" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ235" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK235" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B236" s="39" t="s">
         <v>500</v>
       </c>
@@ -13732,8 +16557,20 @@
       <c r="AG236" s="39" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="237" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH236" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI236" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ236" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK236" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B237" s="39" t="s">
         <v>501</v>
       </c>
@@ -13776,8 +16613,20 @@
       <c r="AG237" s="39" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="238" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH237" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI237" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ237" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK237" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B238" s="39" t="s">
         <v>502</v>
       </c>
@@ -13820,8 +16669,20 @@
       <c r="AG238" s="39" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="239" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH238" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI238" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ238" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK238" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B239" s="39" t="s">
         <v>503</v>
       </c>
@@ -13864,8 +16725,20 @@
       <c r="AG239" s="39" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="240" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH239" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI239" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ239" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK239" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B240" s="39" t="s">
         <v>504</v>
       </c>
@@ -13908,8 +16781,20 @@
       <c r="AG240" s="39" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="241" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH240" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI240" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ240" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK240" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B241" s="39" t="s">
         <v>505</v>
       </c>
@@ -13952,8 +16837,20 @@
       <c r="AG241" s="39" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="242" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH241" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI241" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ241" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK241" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B242" s="39" t="s">
         <v>506</v>
       </c>
@@ -13996,8 +16893,20 @@
       <c r="AG242" s="39" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="243" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH242" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI242" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ242" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK242" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B243" s="39" t="s">
         <v>507</v>
       </c>
@@ -14040,8 +16949,20 @@
       <c r="AG243" s="39" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="244" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH243" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI243" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ243" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK243" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B244" s="39" t="s">
         <v>508</v>
       </c>
@@ -14084,8 +17005,20 @@
       <c r="AG244" s="39" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="245" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH244" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI244" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ244" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK244" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B245" s="39" t="s">
         <v>509</v>
       </c>
@@ -14128,8 +17061,20 @@
       <c r="AG245" s="39" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="246" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH245" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI245" s="38">
+        <v>750000</v>
+      </c>
+      <c r="AJ245" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK245" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B246" s="39" t="s">
         <v>510</v>
       </c>
@@ -14172,8 +17117,20 @@
       <c r="AG246" s="39" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="247" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH246" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI246" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ246" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK246" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B247" s="39" t="s">
         <v>511</v>
       </c>
@@ -14216,8 +17173,20 @@
       <c r="AG247" s="39" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="248" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH247" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI247" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ247" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK247" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B248" s="39" t="s">
         <v>512</v>
       </c>
@@ -14260,8 +17229,20 @@
       <c r="AG248" s="39" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="249" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH248" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI248" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ248" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK248" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B249" s="39" t="s">
         <v>513</v>
       </c>
@@ -14304,8 +17285,20 @@
       <c r="AG249" s="39" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="250" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH249" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI249" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ249" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK249" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B250" s="39" t="s">
         <v>514</v>
       </c>
@@ -14348,8 +17341,20 @@
       <c r="AG250" s="39" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="251" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH250" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI250" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ250" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK250" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B251" s="39" t="s">
         <v>515</v>
       </c>
@@ -14392,8 +17397,20 @@
       <c r="AG251" s="39" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="252" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH251" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI251" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ251" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK251" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B252" s="39" t="s">
         <v>516</v>
       </c>
@@ -14436,8 +17453,20 @@
       <c r="AG252" s="39" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="253" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH252" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI252" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ252" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK252" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B253" s="39" t="s">
         <v>517</v>
       </c>
@@ -14480,8 +17509,20 @@
       <c r="AG253" s="39" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="254" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH253" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI253" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ253" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK253" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B254" s="39" t="s">
         <v>518</v>
       </c>
@@ -14524,8 +17565,20 @@
       <c r="AG254" s="39" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="255" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH254" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI254" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ254" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK254" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B255" s="37" t="s">
         <v>519</v>
       </c>
@@ -14568,8 +17621,20 @@
       <c r="AG255" s="60" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="256" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH255" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI255" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ255" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK255" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B256" s="37" t="s">
         <v>520</v>
       </c>
@@ -14612,8 +17677,20 @@
       <c r="AG256" s="60" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="257" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH256" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI256" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ256" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK256" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B257" s="37" t="s">
         <v>521</v>
       </c>
@@ -14656,8 +17733,20 @@
       <c r="AG257" s="60" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="258" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH257" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI257" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ257" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK257" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B258" s="37" t="s">
         <v>522</v>
       </c>
@@ -14700,8 +17789,20 @@
       <c r="AG258" s="60" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="259" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH258" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI258" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ258" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK258" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B259" s="37" t="s">
         <v>523</v>
       </c>
@@ -14744,8 +17845,20 @@
       <c r="AG259" s="60" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="260" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH259" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI259" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ259" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK259" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B260" s="37" t="s">
         <v>524</v>
       </c>
@@ -14788,8 +17901,20 @@
       <c r="AG260" s="60" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="261" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH260" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI260" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ260" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK260" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B261" s="37" t="s">
         <v>525</v>
       </c>
@@ -14832,8 +17957,20 @@
       <c r="AG261" s="60" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="262" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH261" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI261" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ261" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK261" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B262" s="37" t="s">
         <v>526</v>
       </c>
@@ -14876,8 +18013,20 @@
       <c r="AG262" s="60" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="263" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH262" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI262" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ262" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK262" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B263" s="37" t="s">
         <v>527</v>
       </c>
@@ -14920,8 +18069,20 @@
       <c r="AG263" s="60" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="264" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH263" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI263" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ263" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK263" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B264" s="37" t="s">
         <v>528</v>
       </c>
@@ -14964,8 +18125,20 @@
       <c r="AG264" s="60" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="265" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH264" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI264" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ264" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK264" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B265" s="37" t="s">
         <v>529</v>
       </c>
@@ -15008,8 +18181,20 @@
       <c r="AG265" s="60" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="266" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH265" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI265" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ265" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK265" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B266" s="37" t="s">
         <v>530</v>
       </c>
@@ -15052,8 +18237,20 @@
       <c r="AG266" s="60" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="267" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH266" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI266" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ266" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK266" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B267" s="37" t="s">
         <v>531</v>
       </c>
@@ -15096,8 +18293,20 @@
       <c r="AG267" s="60" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="268" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH267" s="38">
+        <v>840000</v>
+      </c>
+      <c r="AI267" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ267" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK267" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B268" s="37" t="s">
         <v>532</v>
       </c>
@@ -15140,8 +18349,20 @@
       <c r="AG268" s="60" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="269" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH268" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI268" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ268" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK268" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B269" s="37" t="s">
         <v>533</v>
       </c>
@@ -15184,8 +18405,20 @@
       <c r="AG269" s="60" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="270" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH269" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI269" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ269" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK269" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B270" s="37" t="s">
         <v>534</v>
       </c>
@@ -15228,8 +18461,20 @@
       <c r="AG270" s="60" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="271" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH270" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI270" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ270" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK270" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B271" s="37" t="s">
         <v>535</v>
       </c>
@@ -15272,8 +18517,20 @@
       <c r="AG271" s="60" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="272" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH271" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI271" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ271" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK271" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B272" s="37" t="s">
         <v>536</v>
       </c>
@@ -15316,8 +18573,20 @@
       <c r="AG272" s="60" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="273" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH272" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI272" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ272" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK272" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B273" s="37" t="s">
         <v>537</v>
       </c>
@@ -15360,8 +18629,20 @@
       <c r="AG273" s="60" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="274" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH273" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI273" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ273" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK273" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B274" s="37" t="s">
         <v>538</v>
       </c>
@@ -15404,8 +18685,20 @@
       <c r="AG274" s="60" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="275" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH274" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI274" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ274" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK274" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B275" s="37" t="s">
         <v>539</v>
       </c>
@@ -15448,8 +18741,20 @@
       <c r="AG275" s="60" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="276" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH275" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI275" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ275" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK275" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B276" s="37" t="s">
         <v>540</v>
       </c>
@@ -15492,8 +18797,20 @@
       <c r="AG276" s="60" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="277" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH276" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI276" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ276" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK276" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B277" s="37" t="s">
         <v>541</v>
       </c>
@@ -15536,8 +18853,20 @@
       <c r="AG277" s="60" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="278" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH277" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI277" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ277" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK277" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B278" s="37" t="s">
         <v>542</v>
       </c>
@@ -15580,8 +18909,20 @@
       <c r="AG278" s="60" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="279" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH278" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI278" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ278" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK278" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B279" s="37" t="s">
         <v>543</v>
       </c>
@@ -15624,8 +18965,20 @@
       <c r="AG279" s="60" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="280" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH279" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI279" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ279" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK279" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B280" s="37" t="s">
         <v>544</v>
       </c>
@@ -15668,8 +19021,20 @@
       <c r="AG280" s="60" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="281" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH280" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI280" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ280" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK280" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B281" s="37" t="s">
         <v>545</v>
       </c>
@@ -15712,8 +19077,20 @@
       <c r="AG281" s="60" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="282" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH281" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI281" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ281" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK281" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B282" s="37" t="s">
         <v>546</v>
       </c>
@@ -15756,8 +19133,20 @@
       <c r="AG282" s="60" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="283" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH282" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI282" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ282" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK282" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B283" s="37" t="s">
         <v>547</v>
       </c>
@@ -15800,8 +19189,20 @@
       <c r="AG283" s="60" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="284" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH283" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI283" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ283" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK283" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B284" s="37" t="s">
         <v>548</v>
       </c>
@@ -15844,8 +19245,20 @@
       <c r="AG284" s="60" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="285" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH284" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI284" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ284" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK284" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B285" s="37" t="s">
         <v>549</v>
       </c>
@@ -15888,8 +19301,20 @@
       <c r="AG285" s="60" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="286" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH285" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI285" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ285" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK285" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B286" s="37" t="s">
         <v>550</v>
       </c>
@@ -15932,8 +19357,20 @@
       <c r="AG286" s="60" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="287" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH286" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI286" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ286" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK286" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B287" s="37" t="s">
         <v>551</v>
       </c>
@@ -15976,8 +19413,20 @@
       <c r="AG287" s="60" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="288" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH287" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI287" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ287" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK287" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B288" s="37" t="s">
         <v>552</v>
       </c>
@@ -16020,8 +19469,20 @@
       <c r="AG288" s="60" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="289" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH288" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI288" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ288" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK288" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B289" s="37" t="s">
         <v>553</v>
       </c>
@@ -16064,8 +19525,20 @@
       <c r="AG289" s="60" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="290" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH289" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI289" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ289" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK289" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B290" s="37" t="s">
         <v>554</v>
       </c>
@@ -16108,8 +19581,20 @@
       <c r="AG290" s="60" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="291" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH290" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI290" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ290" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK290" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B291" s="37" t="s">
         <v>555</v>
       </c>
@@ -16152,8 +19637,20 @@
       <c r="AG291" s="60" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="292" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH291" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI291" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ291" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK291" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B292" s="37" t="s">
         <v>556</v>
       </c>
@@ -16196,8 +19693,20 @@
       <c r="AG292" s="60" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="293" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH292" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI292" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ292" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK292" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B293" s="37" t="s">
         <v>557</v>
       </c>
@@ -16240,8 +19749,20 @@
       <c r="AG293" s="60" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="294" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH293" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI293" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ293" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK293" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B294" s="37" t="s">
         <v>50</v>
       </c>
@@ -16284,8 +19805,20 @@
       <c r="AG294" s="60" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="295" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH294" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI294" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ294" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK294" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B295" s="37" t="s">
         <v>51</v>
       </c>
@@ -16328,8 +19861,20 @@
       <c r="AG295" s="60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="296" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH295" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI295" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ295" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK295" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B296" s="37" t="s">
         <v>52</v>
       </c>
@@ -16372,8 +19917,20 @@
       <c r="AG296" s="60" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="297" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH296" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI296" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ296" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK296" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B297" s="37" t="s">
         <v>53</v>
       </c>
@@ -16416,8 +19973,20 @@
       <c r="AG297" s="60" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="298" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH297" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI297" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ297" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK297" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B298" s="37" t="s">
         <v>54</v>
       </c>
@@ -16460,8 +20029,20 @@
       <c r="AG298" s="60" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="299" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH298" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI298" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ298" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK298" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B299" s="37" t="s">
         <v>55</v>
       </c>
@@ -16504,8 +20085,20 @@
       <c r="AG299" s="60" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="300" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH299" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI299" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ299" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK299" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B300" s="37" t="s">
         <v>66</v>
       </c>
@@ -16548,8 +20141,20 @@
       <c r="AG300" s="60" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="301" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH300" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI300" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ300" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK300" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B301" s="37" t="s">
         <v>67</v>
       </c>
@@ -16592,8 +20197,20 @@
       <c r="AG301" s="60" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="302" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH301" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI301" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ301" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK301" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B302" s="37" t="s">
         <v>68</v>
       </c>
@@ -16636,8 +20253,20 @@
       <c r="AG302" s="60" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="303" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH302" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI302" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ302" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK302" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B303" s="37" t="s">
         <v>69</v>
       </c>
@@ -16680,8 +20309,20 @@
       <c r="AG303" s="60" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="304" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH303" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI303" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ303" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK303" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B304" s="37" t="s">
         <v>70</v>
       </c>
@@ -16724,8 +20365,20 @@
       <c r="AG304" s="60" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="305" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH304" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI304" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ304" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK304" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B305" s="37" t="s">
         <v>71</v>
       </c>
@@ -16768,8 +20421,20 @@
       <c r="AG305" s="60" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="306" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH305" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI305" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ305" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK305" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B306" s="37" t="s">
         <v>72</v>
       </c>
@@ -16812,8 +20477,20 @@
       <c r="AG306" s="60" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="307" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH306" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI306" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ306" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK306" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B307" s="37" t="s">
         <v>73</v>
       </c>
@@ -16856,8 +20533,20 @@
       <c r="AG307" s="60" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="308" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH307" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI307" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ307" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK307" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B308" s="37" t="s">
         <v>74</v>
       </c>
@@ -16900,8 +20589,20 @@
       <c r="AG308" s="60" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="309" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH308" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI308" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ308" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK308" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B309" s="37" t="s">
         <v>75</v>
       </c>
@@ -16944,8 +20645,20 @@
       <c r="AG309" s="60" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="310" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH309" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI309" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ309" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK309" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B310" s="37" t="s">
         <v>76</v>
       </c>
@@ -16988,8 +20701,20 @@
       <c r="AG310" s="60" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="311" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH310" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI310" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ310" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK310" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B311" s="37" t="s">
         <v>77</v>
       </c>
@@ -17032,8 +20757,20 @@
       <c r="AG311" s="60" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="312" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH311" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI311" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ311" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK311" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B312" s="37" t="s">
         <v>558</v>
       </c>
@@ -17076,8 +20813,20 @@
       <c r="AG312" s="60" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="313" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH312" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI312" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ312" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK312" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B313" s="37" t="s">
         <v>105</v>
       </c>
@@ -17120,8 +20869,20 @@
       <c r="AG313" s="60" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="314" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH313" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI313" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ313" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK313" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B314" s="37" t="s">
         <v>106</v>
       </c>
@@ -17164,8 +20925,20 @@
       <c r="AG314" s="60" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="315" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH314" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI314" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ314" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK314" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B315" s="37" t="s">
         <v>107</v>
       </c>
@@ -17208,8 +20981,20 @@
       <c r="AG315" s="60" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="316" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH315" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI315" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ315" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK315" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B316" s="37" t="s">
         <v>108</v>
       </c>
@@ -17252,8 +21037,20 @@
       <c r="AG316" s="60" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="317" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH316" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI316" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ316" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK316" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B317" s="37" t="s">
         <v>116</v>
       </c>
@@ -17296,8 +21093,20 @@
       <c r="AG317" s="60" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="318" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH317" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI317" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ317" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK317" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B318" s="37" t="s">
         <v>117</v>
       </c>
@@ -17340,8 +21149,20 @@
       <c r="AG318" s="60" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="319" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH318" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI318" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ318" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK318" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B319" s="37" t="s">
         <v>119</v>
       </c>
@@ -17384,8 +21205,20 @@
       <c r="AG319" s="60" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="320" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH319" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI319" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ319" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK319" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B320" s="37" t="s">
         <v>120</v>
       </c>
@@ -17428,8 +21261,20 @@
       <c r="AG320" s="60" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="321" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH320" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI320" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ320" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK320" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B321" s="37" t="s">
         <v>121</v>
       </c>
@@ -17472,8 +21317,20 @@
       <c r="AG321" s="60" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="322" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH321" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI321" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ321" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK321" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B322" s="37" t="s">
         <v>122</v>
       </c>
@@ -17516,8 +21373,20 @@
       <c r="AG322" s="60" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="323" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH322" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI322" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ322" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK322" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B323" s="37" t="s">
         <v>123</v>
       </c>
@@ -17558,8 +21427,20 @@
       <c r="AG323" s="60" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="324" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH323" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI323" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ323" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK323" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B324" s="37" t="s">
         <v>124</v>
       </c>
@@ -17602,8 +21483,20 @@
       <c r="AG324" s="60" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="325" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH324" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI324" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ324" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK324" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B325" s="37" t="s">
         <v>125</v>
       </c>
@@ -17646,8 +21539,20 @@
       <c r="AG325" s="60" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="326" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH325" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI325" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ325" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK325" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B326" s="37" t="s">
         <v>126</v>
       </c>
@@ -17690,8 +21595,20 @@
       <c r="AG326" s="60" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="327" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH326" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI326" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ326" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK326" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B327" s="37" t="s">
         <v>127</v>
       </c>
@@ -17734,8 +21651,20 @@
       <c r="AG327" s="60" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="328" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH327" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI327" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ327" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK327" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B328" s="37" t="s">
         <v>128</v>
       </c>
@@ -17778,8 +21707,20 @@
       <c r="AG328" s="60" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="329" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH328" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI328" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ328" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK328" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B329" s="37" t="s">
         <v>129</v>
       </c>
@@ -17822,8 +21763,20 @@
       <c r="AG329" s="60" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="330" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH329" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI329" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ329" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK329" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B330" s="37" t="s">
         <v>130</v>
       </c>
@@ -17866,8 +21819,20 @@
       <c r="AG330" s="60" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="331" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH330" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI330" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ330" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK330" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B331" s="37" t="s">
         <v>131</v>
       </c>
@@ -17910,8 +21875,20 @@
       <c r="AG331" s="60" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="332" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH331" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI331" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ331" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK331" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B332" s="37" t="s">
         <v>132</v>
       </c>
@@ -17954,8 +21931,20 @@
       <c r="AG332" s="60" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="333" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH332" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI332" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ332" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK332" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B333" s="37" t="s">
         <v>133</v>
       </c>
@@ -17998,8 +21987,20 @@
       <c r="AG333" s="60" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="334" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH333" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI333" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ333" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK333" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B334" s="37" t="s">
         <v>134</v>
       </c>
@@ -18042,8 +22043,20 @@
       <c r="AG334" s="60" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="335" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH334" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI334" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ334" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK334" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B335" s="37" t="s">
         <v>135</v>
       </c>
@@ -18086,8 +22099,20 @@
       <c r="AG335" s="60" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="336" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH335" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI335" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ335" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK335" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B336" s="37" t="s">
         <v>136</v>
       </c>
@@ -18130,8 +22155,20 @@
       <c r="AG336" s="60" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="337" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH336" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI336" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ336" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK336" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B337" s="37" t="s">
         <v>137</v>
       </c>
@@ -18174,8 +22211,20 @@
       <c r="AG337" s="60" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="338" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH337" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI337" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ337" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK337" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B338" s="37" t="s">
         <v>138</v>
       </c>
@@ -18218,8 +22267,20 @@
       <c r="AG338" s="60" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="339" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH338" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI338" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ338" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK338" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B339" s="37" t="s">
         <v>139</v>
       </c>
@@ -18262,8 +22323,20 @@
       <c r="AG339" s="60" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="340" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH339" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI339" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ339" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK339" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B340" s="37" t="s">
         <v>182</v>
       </c>
@@ -18306,8 +22379,20 @@
       <c r="AG340" s="60" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="341" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH340" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI340" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ340" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK340" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B341" s="37" t="s">
         <v>183</v>
       </c>
@@ -18350,8 +22435,20 @@
       <c r="AG341" s="60" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="342" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH341" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI341" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ341" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK341" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B342" s="37" t="s">
         <v>184</v>
       </c>
@@ -18394,8 +22491,20 @@
       <c r="AG342" s="60" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="343" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH342" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI342" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ342" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK342" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B343" s="37" t="s">
         <v>185</v>
       </c>
@@ -18438,8 +22547,20 @@
       <c r="AG343" s="60" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="344" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH343" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI343" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ343" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK343" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B344" s="37" t="s">
         <v>186</v>
       </c>
@@ -18482,8 +22603,20 @@
       <c r="AG344" s="60" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="345" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH344" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI344" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ344" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK344" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B345" s="37" t="s">
         <v>187</v>
       </c>
@@ -18526,8 +22659,20 @@
       <c r="AG345" s="60" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="346" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH345" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI345" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ345" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK345" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B346" s="37" t="s">
         <v>559</v>
       </c>
@@ -18570,8 +22715,20 @@
       <c r="AG346" s="60" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="347" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH346" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI346" s="38">
+        <v>1500000</v>
+      </c>
+      <c r="AJ346" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK346" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B347" s="37" t="s">
         <v>188</v>
       </c>
@@ -18614,8 +22771,20 @@
       <c r="AG347" s="60" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="348" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH347" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI347" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ347" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK347" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B348" s="37" t="s">
         <v>189</v>
       </c>
@@ -18658,8 +22827,20 @@
       <c r="AG348" s="60" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="349" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH348" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI348" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ348" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK348" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B349" s="37" t="s">
         <v>190</v>
       </c>
@@ -18702,8 +22883,20 @@
       <c r="AG349" s="60" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="350" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH349" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI349" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ349" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK349" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B350" s="37" t="s">
         <v>191</v>
       </c>
@@ -18746,8 +22939,20 @@
       <c r="AG350" s="60" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="351" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH350" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI350" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ350" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK350" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B351" s="37" t="s">
         <v>192</v>
       </c>
@@ -18790,8 +22995,20 @@
       <c r="AG351" s="60" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="352" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH351" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI351" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ351" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK351" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B352" s="37" t="s">
         <v>193</v>
       </c>
@@ -18834,8 +23051,20 @@
       <c r="AG352" s="60" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="353" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH352" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI352" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ352" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK352" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B353" s="37" t="s">
         <v>194</v>
       </c>
@@ -18878,8 +23107,20 @@
       <c r="AG353" s="60" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="354" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH353" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI353" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ353" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK353" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B354" s="37" t="s">
         <v>195</v>
       </c>
@@ -18922,8 +23163,20 @@
       <c r="AG354" s="60" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="355" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH354" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI354" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ354" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK354" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B355" s="37" t="s">
         <v>196</v>
       </c>
@@ -18966,8 +23219,20 @@
       <c r="AG355" s="60" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="356" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH355" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI355" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ355" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK355" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B356" s="37" t="s">
         <v>197</v>
       </c>
@@ -19010,8 +23275,20 @@
       <c r="AG356" s="60" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="357" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH356" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI356" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ356" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK356" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B357" s="37" t="s">
         <v>198</v>
       </c>
@@ -19054,8 +23331,20 @@
       <c r="AG357" s="60" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="358" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH357" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI357" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ357" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK357" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B358" s="37" t="s">
         <v>199</v>
       </c>
@@ -19098,8 +23387,20 @@
       <c r="AG358" s="60" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="359" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH358" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI358" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ358" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK358" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B359" s="37" t="s">
         <v>560</v>
       </c>
@@ -19142,8 +23443,20 @@
       <c r="AG359" s="60" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="360" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH359" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI359" s="38">
+        <v>2000000</v>
+      </c>
+      <c r="AJ359" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK359" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B360" s="37" t="s">
         <v>200</v>
       </c>
@@ -19186,8 +23499,20 @@
       <c r="AG360" s="60" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="361" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH360" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI360" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ360" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK360" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B361" s="37" t="s">
         <v>201</v>
       </c>
@@ -19230,8 +23555,20 @@
       <c r="AG361" s="60" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="362" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH361" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI361" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ361" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK361" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B362" s="37" t="s">
         <v>561</v>
       </c>
@@ -19274,8 +23611,20 @@
       <c r="AG362" s="60" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="363" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH362" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI362" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ362" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK362" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B363" s="37" t="s">
         <v>203</v>
       </c>
@@ -19318,8 +23667,20 @@
       <c r="AG363" s="60" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="364" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH363" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI363" s="38">
+        <v>2000000</v>
+      </c>
+      <c r="AJ363" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK363" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B364" s="37" t="s">
         <v>204</v>
       </c>
@@ -19362,8 +23723,20 @@
       <c r="AG364" s="60" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="365" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH364" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI364" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AJ364" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK364" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B365" s="37" t="s">
         <v>205</v>
       </c>
@@ -19406,8 +23779,20 @@
       <c r="AG365" s="60" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="366" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH365" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI365" s="38">
+        <v>2500000</v>
+      </c>
+      <c r="AJ365" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK365" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B366" s="37" t="s">
         <v>206</v>
       </c>
@@ -19450,8 +23835,20 @@
       <c r="AG366" s="60" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="367" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH366" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI366" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ366" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK366" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B367" s="37" t="s">
         <v>207</v>
       </c>
@@ -19494,8 +23891,20 @@
       <c r="AG367" s="60" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="368" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH367" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI367" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ367" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK367" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B368" s="37" t="s">
         <v>208</v>
       </c>
@@ -19538,8 +23947,20 @@
       <c r="AG368" s="60" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="369" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH368" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI368" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ368" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK368" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B369" s="37" t="s">
         <v>562</v>
       </c>
@@ -19582,8 +24003,20 @@
       <c r="AG369" s="60" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="370" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH369" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI369" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ369" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK369" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B370" s="37" t="s">
         <v>259</v>
       </c>
@@ -19626,8 +24059,20 @@
       <c r="AG370" s="60" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="371" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH370" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI370" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ370" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK370" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B371" s="37" t="s">
         <v>260</v>
       </c>
@@ -19670,8 +24115,20 @@
       <c r="AG371" s="60" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="372" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH371" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI371" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ371" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK371" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B372" s="37" t="s">
         <v>266</v>
       </c>
@@ -19714,8 +24171,20 @@
       <c r="AG372" s="60" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="373" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH372" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI372" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ372" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK372" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B373" s="37" t="s">
         <v>267</v>
       </c>
@@ -19758,8 +24227,20 @@
       <c r="AG373" s="60" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="374" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH373" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI373" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ373" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK373" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B374" s="37" t="s">
         <v>268</v>
       </c>
@@ -19802,8 +24283,20 @@
       <c r="AG374" s="60" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="375" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH374" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI374" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ374" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK374" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B375" s="37" t="s">
         <v>269</v>
       </c>
@@ -19846,8 +24339,20 @@
       <c r="AG375" s="60" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="376" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH375" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI375" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ375" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK375" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B376" s="37" t="s">
         <v>270</v>
       </c>
@@ -19890,8 +24395,20 @@
       <c r="AG376" s="60" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="377" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH376" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI376" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ376" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK376" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B377" s="37" t="s">
         <v>272</v>
       </c>
@@ -19934,8 +24451,20 @@
       <c r="AG377" s="60" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="378" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH377" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI377" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ377" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK377" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B378" s="37" t="s">
         <v>287</v>
       </c>
@@ -19978,8 +24507,20 @@
       <c r="AG378" s="60" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="379" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH378" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI378" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ378" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK378" s="38">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="379" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B379" s="37" t="s">
         <v>288</v>
       </c>
@@ -20022,8 +24563,20 @@
       <c r="AG379" s="60" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="380" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH379" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI379" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ379" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK379" s="38">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="380" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B380" s="37" t="s">
         <v>289</v>
       </c>
@@ -20066,8 +24619,20 @@
       <c r="AG380" s="60" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="381" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH380" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI380" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ380" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK380" s="38">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="381" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B381" s="37" t="s">
         <v>290</v>
       </c>
@@ -20110,8 +24675,20 @@
       <c r="AG381" s="60" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="382" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH381" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI381" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ381" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK381" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B382" s="37" t="s">
         <v>291</v>
       </c>
@@ -20154,8 +24731,20 @@
       <c r="AG382" s="60" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="383" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH382" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI382" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ382" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK382" s="38">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="383" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B383" s="37" t="s">
         <v>292</v>
       </c>
@@ -20198,8 +24787,20 @@
       <c r="AG383" s="60" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="384" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH383" s="38">
+        <v>3500000</v>
+      </c>
+      <c r="AI383" s="38">
+        <v>3500000</v>
+      </c>
+      <c r="AJ383" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK383" s="38">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="384" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B384" s="37" t="s">
         <v>293</v>
       </c>
@@ -20242,8 +24843,20 @@
       <c r="AG384" s="60" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="385" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH384" s="38">
+        <v>3500000</v>
+      </c>
+      <c r="AI384" s="38">
+        <v>3500000</v>
+      </c>
+      <c r="AJ384" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK384" s="38">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="385" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B385" s="37" t="s">
         <v>294</v>
       </c>
@@ -20286,8 +24899,20 @@
       <c r="AG385" s="60" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="386" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH385" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI385" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ385" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK385" s="38">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="386" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B386" s="37" t="s">
         <v>295</v>
       </c>
@@ -20330,8 +24955,20 @@
       <c r="AG386" s="60" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="387" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH386" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI386" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ386" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK386" s="38">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="387" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B387" s="37" t="s">
         <v>296</v>
       </c>
@@ -20374,8 +25011,20 @@
       <c r="AG387" s="60" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="388" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH387" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI387" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ387" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK387" s="38">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="388" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B388" s="37" t="s">
         <v>297</v>
       </c>
@@ -20418,8 +25067,20 @@
       <c r="AG388" s="60" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="389" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH388" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI388" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ388" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK388" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B389" s="37" t="s">
         <v>298</v>
       </c>
@@ -20462,8 +25123,20 @@
       <c r="AG389" s="60" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="390" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH389" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI389" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ389" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK389" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B390" s="37" t="s">
         <v>299</v>
       </c>
@@ -20506,8 +25179,20 @@
       <c r="AG390" s="60" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="391" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH390" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI390" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ390" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK390" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B391" s="42" t="s">
         <v>563</v>
       </c>
@@ -20550,8 +25235,20 @@
       <c r="AG391" s="60" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="392" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH391" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI391" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ391" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK391" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B392" s="37" t="s">
         <v>301</v>
       </c>
@@ -20594,8 +25291,20 @@
       <c r="AG392" s="60" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="393" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH392" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI392" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ392" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK392" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B393" s="37" t="s">
         <v>302</v>
       </c>
@@ -20638,8 +25347,20 @@
       <c r="AG393" s="60" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="394" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH393" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI393" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ393" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK393" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B394" s="37" t="s">
         <v>564</v>
       </c>
@@ -20682,8 +25403,20 @@
       <c r="AG394" s="60" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="395" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH394" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI394" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ394" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK394" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B395" s="37" t="s">
         <v>304</v>
       </c>
@@ -20726,8 +25459,20 @@
       <c r="AG395" s="60" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="396" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH395" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI395" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ395" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK395" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B396" s="37" t="s">
         <v>305</v>
       </c>
@@ -20770,8 +25515,20 @@
       <c r="AG396" s="60" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="397" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH396" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI396" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ396" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK396" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B397" s="37" t="s">
         <v>306</v>
       </c>
@@ -20814,8 +25571,20 @@
       <c r="AG397" s="60" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="398" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH397" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI397" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ397" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK397" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B398" s="37" t="s">
         <v>308</v>
       </c>
@@ -20858,8 +25627,20 @@
       <c r="AG398" s="60" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="399" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH398" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="AI398" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ398" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK398" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B399" s="37" t="s">
         <v>309</v>
       </c>
@@ -20902,8 +25683,20 @@
       <c r="AG399" s="60" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="400" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH399" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI399" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ399" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK399" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B400" s="37" t="s">
         <v>315</v>
       </c>
@@ -20946,8 +25739,20 @@
       <c r="AG400" s="60" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="401" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH400" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI400" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ400" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK400" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B401" s="37" t="s">
         <v>317</v>
       </c>
@@ -20990,8 +25795,20 @@
       <c r="AG401" s="60" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="402" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH401" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI401" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ401" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK401" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B402" s="37" t="s">
         <v>319</v>
       </c>
@@ -21034,8 +25851,20 @@
       <c r="AG402" s="60" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="403" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH402" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI402" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ402" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK402" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B403" s="37" t="s">
         <v>320</v>
       </c>
@@ -21078,8 +25907,20 @@
       <c r="AG403" s="60" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="404" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH403" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI403" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ403" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK403" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B404" s="37" t="s">
         <v>321</v>
       </c>
@@ -21122,8 +25963,20 @@
       <c r="AG404" s="60" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="405" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH404" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI404" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ404" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK404" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B405" s="37" t="s">
         <v>322</v>
       </c>
@@ -21166,8 +26019,20 @@
       <c r="AG405" s="60" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="406" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH405" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI405" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ405" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK405" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B406" s="37" t="s">
         <v>324</v>
       </c>
@@ -21210,8 +26075,20 @@
       <c r="AG406" s="60" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="407" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH406" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI406" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ406" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK406" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B407" s="37" t="s">
         <v>326</v>
       </c>
@@ -21254,8 +26131,20 @@
       <c r="AG407" s="60" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="408" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH407" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI407" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ407" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK407" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B408" s="37" t="s">
         <v>327</v>
       </c>
@@ -21298,8 +26187,20 @@
       <c r="AG408" s="60" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="409" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH408" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI408" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ408" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK408" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B409" s="37" t="s">
         <v>328</v>
       </c>
@@ -21342,8 +26243,20 @@
       <c r="AG409" s="60" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="410" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH409" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI409" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ409" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK409" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B410" s="37" t="s">
         <v>565</v>
       </c>
@@ -21386,8 +26299,20 @@
       <c r="AG410" s="60" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="411" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH410" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI410" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ410" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK410" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B411" s="37" t="s">
         <v>566</v>
       </c>
@@ -21430,8 +26355,20 @@
       <c r="AG411" s="60" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="412" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH411" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI411" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ411" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK411" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B412" s="37" t="s">
         <v>567</v>
       </c>
@@ -21474,8 +26411,20 @@
       <c r="AG412" s="60" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="413" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH412" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI412" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ412" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK412" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B413" s="37" t="s">
         <v>568</v>
       </c>
@@ -21518,8 +26467,20 @@
       <c r="AG413" s="60" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="414" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH413" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI413" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ413" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK413" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B414" s="37" t="s">
         <v>569</v>
       </c>
@@ -21562,8 +26523,20 @@
       <c r="AG414" s="60" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="415" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH414" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI414" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ414" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK414" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B415" s="37" t="s">
         <v>570</v>
       </c>
@@ -21606,8 +26579,20 @@
       <c r="AG415" s="60" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="416" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH415" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI415" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ415" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK415" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B416" s="37" t="s">
         <v>571</v>
       </c>
@@ -21650,8 +26635,20 @@
       <c r="AG416" s="60" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="417" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH416" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI416" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ416" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK416" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B417" s="37" t="s">
         <v>572</v>
       </c>
@@ -21694,14 +26691,26 @@
       <c r="AG417" s="60" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="418" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH417" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI417" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ417" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK417" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C418" s="37"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ22">
       <formula1>Jenis_Kelamin</formula1>
     </dataValidation>
   </dataValidations>
